--- a/data/hotels_by_city/Dallas/Dallas_shard_103.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_103.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nancy W</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We've stayed here several times when returning to our old neighborhood.  The property is clean and the staff is friendly.  The bathroom could use towel racks so towels can be reused.  Breakfast is just ok, with pretty awful eggs but cute Texas shaped waffles.  There are now Keurigs in the rooms, which is always a nice touch, and I love the lemon water that seems to be standard for this brand.  We chose this property because it is walking distance to a fairly new and very nice Jazzercise center with 50 classes and many great instructors. Something to do if your spouse takes the rental car to work.More</t>
   </si>
   <si>
+    <t>Doug K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r539194046-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
   </si>
   <si>
     <t>Hotel Needs Deep Cleaning, Up-Dating, New Carpet.  My Room had Miss Matched Panting Touch Up's Done, Not Professionally Painted or Ceiling Fixed.   Staff was Friendly, Breakfast Below Average for a Comfort Suites.  This Property is a $65/night Hotel.   Not $100 Plus per NightMore</t>
+  </si>
+  <si>
+    <t>TeamWarrior</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r480577190-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -248,6 +257,9 @@
   We arrived at the hotel to find out that everything was switched he had rooms, I had rooms, his information was mixed with my information. My new card number was on his room etc. I told the we only needed two rooms for three nights.  He said no problem, well even wave the first night because you showed up at 4 in the morning, which I had already told the GM the previous day. At check out I find out they went ahead and charged me for the first night.  When I get home I found out they hit my card another two times for no shows on two other rooms that I never had. $281.00 went...I made reservations a year in advance for the Pate Swap meet.  I do every year and I do it for two rooms and three nights. My brother does the same thing.  Some how they got the nights, the names, the CC numbers, our mailing addresses all mixed up.  The General Manager calls me because the card I made the reservations on had expired and he wanted to give me a curtsey call.  I gave him the card number and confirmed my two rooms for three nights, no problem.  I asked about my brothers reservations and he said there was no one else with that last name in the system. I told them no problem, I'll let him have one of my rooms.  We arrived at the hotel to find out that everything was switched he had rooms, I had rooms, his information was mixed with my information. My new card number was on his room etc. I told the we only needed two rooms for three nights.  He said no problem, well even wave the first night because you showed up at 4 in the morning, which I had already told the GM the previous day. At check out I find out they went ahead and charged me for the first night.  When I get home I found out they hit my card another two times for no shows on two other rooms that I never had. $281.00 went to $716.00 real quick and it's all based on what they finger into their system.  You can't trust reservations made over the phone with these people because they do and will enter things in wrong on the computer and you don't find out until you get home. They hit my brothers card 6 times and mine 3. I thought when I checked out I was done but this was not the case. STAY AWAY! You can't trust what they tell you on the phone and they can't keep things straight in their own computer. Then hit your card without telling you.More</t>
   </si>
   <si>
+    <t>michaelsalinas86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r478985421-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>I stayed at this hotel not very long ago and honestly the worst place to stay. Obviously the "executive cleaning staff" doesn't check things very well because a lamp was broken upon arrival and i didn't think to report it because we didn't need to use the lamp and after my stay i was charged $125 for a lamp. Also, half way through our stay when we first turned on the sink it was clogged and I'm sure the "executive cleaning staff" checked that off the list as well. This hotel is also supposed to be a smoke free establishment, but at one point our whole hallway smelled like marijuana. I was forced to park across the street because the hotel didn't have sufficient parking space for the guests. What kind of hotel doesn't know how much parking space they should have? Also the wifi barely worked. DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>meagannguyen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r478985241-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>Stayed here with a couple of friends and our hotel room was absolutely disgusting. They claim that this hotel is "smoke free" but the whole placed reeked of cigarettes and marijuana. I could barely get any sleep because it was so loud. The bed was uncomfortable and don't get me started about the stains on the pillows. The wifi was pretty bad as well. There was no room for parking so they told us to park across the street and walk. I'm not usually one to write any kind of review, but PLEASE, for your sake do NOT stay here.More</t>
   </si>
   <si>
+    <t>Nebby3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r364127926-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>This hotel has clearly seen some better days. The carpet, for instance, had holes. But it was clean, staff was friendly. The breakfast was stereotypical hotel fare, not great but suitable. I love that there are suite rooms as I travel with 4 kids. The room wasn't too crowded with furniture either as some that say they sleep up to 6 are.More</t>
   </si>
   <si>
+    <t>StefanoRimini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r337305644-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -368,6 +389,9 @@
     <t>After staying at four other Comfort Suites in the past 2 weeks, I was very disappointed in this one.A single small (32 inch?) TV that is placed directly in front of the bed is barely visible from the couch 15 to 20 feet away. Furthermore, unless you rearrange the couch you can't even see the TV due to the partial room divider being in the way.The WiFi internet speed is very poor at 1.2 Mbps and drops the connection on an irregular basis as a result.Finally, the whole room vibrates when the window unit AC is running.After speaking to the Manager (Christine?), she indicated all the rooms had the small TVs; she tried to address the WiFi problems by rebooting the internet system which unfortunately did not improve it's performance.More</t>
   </si>
   <si>
+    <t>Kimberly A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r299562661-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -392,6 +416,9 @@
     <t>We were visiting my brother who recently moved there from Dallas. Very clean rooms and friendly staff. Breakfast was well stocked and area kept clean by attendant. Rooms quiet and ac worked very well considering it was 106 degrees while we were there. Pool area nice and has a nice workout facility. More</t>
   </si>
   <si>
+    <t>Adina N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r284803190-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -413,6 +440,9 @@
     <t>Staff was less than happy to be there 98% of the time, morning breakfast had sour milk and water filled "scrambled" eggs, rooms with 2 beds have 1 bed shoved up against the AC so someone will always be freezing and unable to get out of their side of the bed, TV has close to 10 stations that actually work and of those you have an awful white noise that is louder than the show, pool is surrounded by very tall weeds so if you have allergies watch out, you get locked out right at 11am and they do not warn you so you have to go down stairs to sign the extended night paperwork even though they charge you before you sign the paper, bathtubs are slippery (my 6yr old slipped and hit his head the first night), not much of an area to walk your dog, at night they provide a snack for guest which include a male worker walking around on the phone complaining about the higher ups while he butchers the snack because he cannot use 2 hands to get them off the pan, and so much more.... JUST STAY AWAY FROM HERE. I could type all day how horrible this place is for the amount of money that you will spend, I have stayed at many hotels in different states but this is by far the worst and that is pretty bad since I have...Staff was less than happy to be there 98% of the time, morning breakfast had sour milk and water filled "scrambled" eggs, rooms with 2 beds have 1 bed shoved up against the AC so someone will always be freezing and unable to get out of their side of the bed, TV has close to 10 stations that actually work and of those you have an awful white noise that is louder than the show, pool is surrounded by very tall weeds so if you have allergies watch out, you get locked out right at 11am and they do not warn you so you have to go down stairs to sign the extended night paperwork even though they charge you before you sign the paper, bathtubs are slippery (my 6yr old slipped and hit his head the first night), not much of an area to walk your dog, at night they provide a snack for guest which include a male worker walking around on the phone complaining about the higher ups while he butchers the snack because he cannot use 2 hands to get them off the pan, and so much more.... JUST STAY AWAY FROM HERE. I could type all day how horrible this place is for the amount of money that you will spend, I have stayed at many hotels in different states but this is by far the worst and that is pretty bad since I have never left negative feedback.More</t>
   </si>
   <si>
+    <t>Bobbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r282167469-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -437,6 +467,9 @@
     <t>Nothing fancy here, just a clean comfortable place to spend the night. Breakfast was average. The pool was quite enjoyable, and the hot tub saved my muscles after a long day of work. I will stay again next time I'm out that way.More</t>
   </si>
   <si>
+    <t>Deanna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r274090030-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -464,6 +497,9 @@
     <t>The hotel was booked almost full.  We were later than anticipated. And very tired. The front desk graciously let our daughter-law who was waiting for us to check us in so that all we had to do was walk into our room. The room was a perfect accommodation for the challenges my husband has.  We were so appreciative of the staff and everything they did for us.  Thank you Comfort Suites!More</t>
   </si>
   <si>
+    <t>John P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r261768002-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -491,6 +527,9 @@
     <t>My parents rented a room here on their last visit, good clean safe rooms, decent bare bones breakfast, wifi service. If you have business in the Solana complex or are visiting downtown Roanoke for the upscale restaurants, Hawaiian Falls or Texas Motor Speedway this hotel is one of the best values around!More</t>
   </si>
   <si>
+    <t>Srichardson86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r250219357-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -515,6 +554,9 @@
     <t>The hotel has been there a while and it's starting to show its age, but overall still a nice place. Rooms are very clean and the mattress was comfortable. Easy access to surrounding restaurants and attractions. Very accommodating staff. Will stay again if the need arisesMore</t>
   </si>
   <si>
+    <t>James H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r244722484-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -542,6 +584,9 @@
     <t>I tried to cancel a multi night hotel stay after 3pm. I should have been charge one night, they charged me the full amount. They said it was cause I used expedia. I do not use expedia willing so if that was the case they need to work on there website. I feel like this hotel robbed me. I will never use a Comfort Suites for the rest of my life. I will sooner sleep in my truck.More</t>
   </si>
   <si>
+    <t>Gabelex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r242166501-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -569,6 +614,9 @@
     <t>Stayed long weekend - near attractions and multi-taste restaurants, from fast food to continental; Texas Motor Speedway and a water park nearby; close to upscale Southlake shopping, restaurants and theater complex. Nice and clean room with divided "living" area. Competitively priced, $10 daily pet fee. Pet friendly, as is staff - nice breakfast array.More</t>
   </si>
   <si>
+    <t>FoxMulderFBI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r233858751-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -594,6 +642,9 @@
   </si>
   <si>
     <t>Hotel staff were friendly from the get go and the room was spacious and clean. Beds were clean and comfortable. The breakfast was better than your typical free breakfast, with fresh biscuits and real eggs. There were a few hiccups, however. I'm not sure who designed the exterior of the hotel, but placing giant floodlights right outside the ground floor windows does not seem like a smart idea. Even with the blackout shades closed our room was lit up like we were next to a football stadium. The shower would not turn off once turned out, no matter how tightly you turned the knob. The air conditioners are apparently controlled from the front desk, so you have to make a special request to have yours activated. We also noticed our AC unit's front vent was EXTREMELY dirty, with clumps of what looked to be mud in the vent. Other than those issues we had a nice stay here.More</t>
+  </si>
+  <si>
+    <t>Traverler1515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r229399374-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -629,6 +680,9 @@
 Lastly, the Wi-Fi at the hotel was difficult to log onto and had limited "high speed"....Generally have good to excellent experiences with Comfort Suites Hotels, this location we experienced some problems.  Pros:  Generally clean,  better than average fitness center, and friendly / helpful staff.Cons: Our room was located on the ground level.  It was the type with adjacent access to the neighboring room. We could hear their normal volume conversations as if they were in the room with us.  Outside our window was a grassy field, some sort of bugs were getting into our room thru cracks around the window. They would appear suddenly on the ceiling; I killed at least 8 of these bugs within a 40 minute span of time. The last straw was when the wife found one next to her in bed. The desk clerk quickly moved us to an "upgrade room" on the second floor. The next room was a whole new set of problems. First, the AC sounded like an industrial machine. It was so loud we could not use it despite the near 90 degree Texas heat. Next, the leaky toilet flapper caused the toilet to constantly re-fill itself.  I had to shut off the water to the toilet in order to stop the noise.  The stopper on the tub was broken and there was black mildew in the corner between the tub and the floor.  Not exactly an "upgrade room".Lastly, the Wi-Fi at the hotel was difficult to log onto and had limited "high speed". Overall, definitely room for improvement.More</t>
   </si>
   <si>
+    <t>loulou928</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r227954938-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -653,6 +707,9 @@
     <t>I stayed here for 7 nights while my daughter attended a softball tournament in the area.  It was very clean and the staff was very helpful.  The room was spacious and clean. Location was convenient to many attractions.  It was less than 30 minutes to both Fort Worth and Dallas.  There were several fabulous restaurants in town.  All around a good experience.More</t>
   </si>
   <si>
+    <t>Jennifer T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r227801412-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -669,6 +726,9 @@
   </si>
   <si>
     <t>Booked a room here to see an event at Texas Motor Speedway. The front desk staff was extremely nice and check in was fast. Our room was right by the lobby, but it was quiet all night. Never heard anyone in the parking lot or in the lobby (we stayed a Saturday night).  The room was clean (had a microwave and small fridge) and beds were very comfortable. Easy to get in &amp; out and close to Roanoke restaurants (try Babe's Chicken Dinner!). Would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>Susan F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r224915432-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -704,6 +764,9 @@
 We usually had to wait for someone to show up at the desk. And there was no one around at breakfast to help - probably because they couldn't afford to keep that much staff on for so few rooms. We went out to the pool and our room keys would not let us in.  We had to walk around through the parking lot and lobby.  We told the person at the desk and she said, "oh, the maintenance man is not here right now."...Generally, our stay was fine.  But I don't feel like it was a very good value for what I paid for the room, considering the hotel was nearly empty.  We never had to wait for the elevator. Employees were pleasant and tried to be helpful.  The hotel is undergoing some remodeling, so the lobby is bare.  That wasn't a problem.  I would probably give this hotel another chance at some later time.Free wifi was good, and our room had a nice view.  Frig, sink, and microwave were all handy to have available.Our room was extremely hot when we arrived.  It took hours to cool down to an acceptable temperature.  The room was clean, except the back of the bathroom door which was very dirty. The ice machine on our floor had mildew in the bottom.  The room was quiet, but an outside spotlight shined on our window making it hard to get to sleep.We usually had to wait for someone to show up at the desk. And there was no one around at breakfast to help - probably because they couldn't afford to keep that much staff on for so few rooms. We went out to the pool and our room keys would not let us in.  We had to walk around through the parking lot and lobby.  We told the person at the desk and she said, "oh, the maintenance man is not here right now." A brief apology would have been appropriate.The location is great for the Texas Motor Speedway and the new Hawaiian Falls.  The town of Roanoke is nice for shopping and dinner.More</t>
   </si>
   <si>
+    <t>CLIF S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r212939578-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -731,6 +794,9 @@
     <t>I stayed for two weeks and will never do it again.TV is very poor. 1st night I only had 4 channels and picked up a few more every day but had no guide so usually gave up and went to bed . Had a king bed reserved but only rooms with 2 beds were aval.,and they were very firm. Did have 1 night with a dog barking non stop in the room next to me alsoMore</t>
   </si>
   <si>
+    <t>Gaylan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r210850654-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -755,6 +821,9 @@
     <t>Although this hotel is right off of a very busy road with a lot of truck traffic I found the room to be very quite.  For this price hotel the bed was very comfortable.  Breakfast was par for a hotel of this caliber.  Nothing fancy but plenty substantial.  Overall I rated the hotel as very good.  I would stay here again.  One other thing that really impressed me was when I checked in the front desk person noticed that I was there attending a conference.  He commented they really appreciated the business.  Nice touch!More</t>
   </si>
   <si>
+    <t>tu2rgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r204670686-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -776,6 +845,9 @@
     <t>We've been here several times as we have relatives in the Roanoke, Keller area. It's a nice hotel, close to the speedway (which we've never been to). The rooms are big, clean and the beds, comfortable. The one thing I did not like was the TV reception. Since we stayed a couple of days, I did want to watch some shows, but the reception was all kind of snowy, except for FOX, which seemed to come in really clear. The hotel is still fairly new and nicely decorated.More</t>
   </si>
   <si>
+    <t>connie817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r200413508-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -803,6 +875,9 @@
     <t>Room was very comfortable and they accommodated my dog.  I had a room at the end of the hall near the door so we could get outside quickly for walks.  Breakfast was pretty good, just a smidge above average (I guess the sausage gravy swayed me)....good biscuits.   This is my second stay at the hotel and I will stay there again.  I was there 3 nights.  There was ample room around outside of hotel to walk the dog, and a neighborhood with sidewalks close by.  Very clean.  Updated.  There was a workout area and laundry facility (one washer/dryer and it was kind of old and beat up but I used it anyway.)More</t>
   </si>
   <si>
+    <t>smackArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r198890693-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -825,6 +900,9 @@
   </si>
   <si>
     <t>We stayed here on a stop over between destinations.  There were some minor maintenance issues that needed to be addressed.  The exterior lights made it uncomfortable to leave the curtains open.  Toiletries were skimpy.  We left early in the morning and missed the breakfast, but they had drying fans in the breakfast area all night.  No explanation offered from the staff (I did not ask about it).  It appeared that they were still blowing when we left in the morning.More</t>
+  </si>
+  <si>
+    <t>JohnHagopian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r192498251-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -856,6 +934,9 @@
 The real improvement over last time is in the staff. Karl "Optimus Prime" Ruyle (the one I raved about last time) has been promoted to manager. Great move by the owners. I have definitely noticed a change in culture of the staff. If you read my other reviews, you know that one of my pet peeves is photocopies and scans. Charging for this is really insulting. The previous manager was really nice and did this for me without any attitude. Karl has gone one step above. He is teaching his staff to provide this top notch service as well. So this time, I met one of his staff Zach "ironhide". He was being taught how to do the scans yesterday. I also met Nancy who had moved here from Long Beach. She was very nice at the front desk. One other person (who unfortunately I did not get his name) was the maintenance guy who fixed the heater in the room, and then took the extra step to follow up and...This is my third stay at this hotel, and I like to stay here whenever I am in Dallas. I have to say, this is by far my best experience. The facility is really nice. Everything is clean and fresh. There are little extras here that travelers like me appreciate. Lots of plugs for your electronics. Usb ports are a nice touch that are not in all comfort inns. The real improvement over last time is in the staff. Karl "Optimus Prime" Ruyle (the one I raved about last time) has been promoted to manager. Great move by the owners. I have definitely noticed a change in culture of the staff. If you read my other reviews, you know that one of my pet peeves is photocopies and scans. Charging for this is really insulting. The previous manager was really nice and did this for me without any attitude. Karl has gone one step above. He is teaching his staff to provide this top notch service as well. So this time, I met one of his staff Zach "ironhide". He was being taught how to do the scans yesterday. I also met Nancy who had moved here from Long Beach. She was very nice at the front desk. One other person (who unfortunately I did not get his name) was the maintenance guy who fixed the heater in the room, and then took the extra step to follow up and make sure everything was great with me. This is what I mean by raising the level of service. Even the people who clean the rooms have gotten better. They FULLY stock the room with towels, soap, and most of all COFFEE. Trust me, there is coffee in the lobby, but it is a nice touch to have enough coffee stocked in your room that you don't have to leave your room in the middle of the night. Well done, Tina Patel on upgrading this hotel. I look forward to staying here again next time I am in Dallas.More</t>
   </si>
   <si>
+    <t>lousueCocoaBeachFl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r188458733-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -883,6 +964,9 @@
     <t>Stayed 3 nights while visiting family in the area. The hotel was very quiet. We thought that it was above average in cleanliness. The staff was friendly and professional. Morning breakfast was fresh with a nice variety of selections. We will definitely stay again when we come back.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r187530586-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -907,6 +991,9 @@
     <t>I really enjoyed my stay here. The staff was very accommodating and professional. The breakfast was delicious. The hotel is a short drive from DFW which was a big plus. I would definitely stay at this location again.More</t>
   </si>
   <si>
+    <t>Betty L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r182762183-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1021,9 @@
     <t>We spent 5 days here last week and had a very nice experience.  The staff was pleasant and helpful, they even put our group in adjoining rooms even tho we didn't arrive together.  Breakfast was excellent and very complete with waffles, eggs, sausage, biscuits and gravy, and many other items.  Coffee was available in the lobby at all times and if we ever get back to Texas we will stay there again. My only complaint was the TV was very iffy and the closet doors did not work well. The LeBeau family.More</t>
   </si>
   <si>
+    <t>TexKeystone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r181426657-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1042,9 @@
     <t>Convenient to IH35W, 114, and the Alliance Corridor, this hotel is a stones throw from Texas Motor Speedway.   I stayed there with a handful of friends, all of whom were joining me for a performance driving course at the speedway.  Proximity isn't the only thing the hotel has going for it.  Although from the faded sign, it's obviously an aged property, inside it seems to have been remodeled.   The wifi is free and works perfectly, excellent channel variety on the flat screen tv, large mini suite type room which, although simple, was clean and had plenty of power accessibility for my tech gadgets.     Make no mistake, it's not a luxury hotel, but it's not intended to be.    As a limited service value focused hotel, it's priced right, includes a free hot breakfast, and it convenient to a few restaurants and convenience stores.    If I'm ever back in the area, I'd try it again.    Thank you to the front desk staff for the courtesy.  More</t>
   </si>
   <si>
+    <t>Fred D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r176234857-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1072,9 @@
     <t>The hotel was great.. Very clean.. I just left there for business purpose..The hotel manager there was terrific... she help me with some matter I was having with my bank. that was great...she went the extra mile in helping me... I will stay there again...thanks.....from FredMore</t>
   </si>
   <si>
+    <t>M S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r172105583-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1120,9 @@
     <t>I stay in different hotels for work across the country. I have come to expect a certain level from any hotel brand as a standard. Clean and quiet room; friendly staff; free breakfast; plenty of towels; and free wifi are the standard. This particular location exceeded my expectations. The workers in particular went above and beyond. Girl by the name Katina, and a guy by the name Karl (he prefers Optimus Prime). All of the copies and scans that I needed were taken care of right away. This, along with meeting all of the other standards earned them an excellent review from me.More</t>
   </si>
   <si>
+    <t>Wongs1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r162418747-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1148,9 @@
   </si>
   <si>
     <t>Nice place to stay .... comfortable, clean, and easy access to interstates.This property is located up on a hill from TX114. You can see TMS from your window! Clean, secluded property, a Waffle House and 7/11 within walking distance and restaurants within a 15 min drive.  Small pool and hot tub outdoors in back.  Small lobby. Clean and welcoming. Ice and vending on each floor. Friendly staff.Comfortable room: clean bathroom, plenty of towels, clean linens, bed was ok, small refrig, small microwave, kitchenette counter space with cabinet and a small sink, sliding glass door on closet needs to be replaced, low-backed couch isn't comfortable to sit on but is ok for lounging, plenty of desk work space with plenty of outlets, comfortable business deskchair. AC works fine.  TV signal is below average with local channels, ESPN, a few children's channels, SPEED, several news channels, weather channel, TBS. Good internet signal and cell phone signal throughout property.Fitness room is sufficient: clean, water available, TV, nice AC, univeral, treadmill, 2 bikes, elliptical .... some are a bit creaky but work fine.Breakfast was yummy: cereals, breads, eggs/bacon/gravy/biscuits, waffles, juices, coffee/tea, fresh fruit, danish, attended regularly, clean tables.  Coffee/hot tea service available all day in lobby.Washing machine/dryer also available.More</t>
+  </si>
+  <si>
+    <t>JennVB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r155021944-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -1080,6 +1182,9 @@
 I am still a guest here through tomorrow a.m., but foresee no issues with checkout. In the past, I have had...I live in the Metroplex, but frequently find a need to check into area hotels for business purposes. This was my first time visiting the Comfort Suites in Roanoke. Based on the overall amenities, price and friendliness of the hotel staff, this is now my hotel of choice. Karl, Katina and Laura at the front desk have been friendly, helpful and courteous. They have gone out of their way to provide any extras that I have requested, and have been knowledgeable about the area, local restaurants, etc. My room is clean, spacious and very pleasant to spend time in. The room is equipped with a mini-refrigerator and microwave, so convenient! Room layout is a king bed, combination sitting/ work area w/ office desk, high speed connection and office chair. High speed connection works extremely well, as opposed to even 5 star hotels I’ve stayed that have spotty connectivity issues or frequent timeouts. The only minor issue is that the cable TV package is fairly limited, but hey, I’m here to get work done. The hot breakfasts are definitely a step above most hotels “Continental breakfasts”.The pool is VERY clean and well kept (as opposed to some hotels where pool maintenance is a bit sketchy) and the hot tub is a real bonus after a day spent on my laptop.I am still a guest here through tomorrow a.m., but foresee no issues with checkout. In the past, I have had incidents with bogus room charges or additional taxes/ service fees popping up on my credit card at a later date or upon checkout. However, this has happened only in hotels offering full meal service, gift shop amenities, etc. If this should occur w/ Comfort Suites, I will check back and amend my review. But based on my stay to date, I foresee nothing but smooth sailing.My overall experience has been a cut above other hotels in this class, and CS is slightly less expensive than hotels closer to DFW by a few miles. I will be coming here again and again, and would highly recommend this Comfort Suites for business and personal travel. Hope this review helps!More</t>
   </si>
   <si>
+    <t>MrVTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r153488178-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1203,9 @@
     <t>Staying here at the moment on a week long business trip. While it is by no means a 5 star luxury hotel, I think it's a fantastic bargain for what they charge. The staff members I've encountered have all been courteous and helpful, and there are many restaurants in Roanoke between a 5-10 minute drive away, and a 7-11 convenience store about a 2 minute drive away.I did occasionally hear some traffic noise from nearby TX114, but it was not offensive and I quickly became used to it.There's no cooked to order beakfast, but there are plentiful amounts of juice, coffee, hot and cold cereal, bagels, rolls, scrambled eggs, biscuits and gravy, make your own waffles, yogurt, and more, so no excuse to go hungry in the morning.Gym is a little small, with a treadmill, elliptical, stationary bikes, and universal weight machine, but I found plenty enough to get me sweating when I chose to.Having to reauthorize yourself to the wi-fi connection every day was a little bit of a pain, but since the wi-fi is free, is a small price to pay.In a bit of a secluded area, so you could feel safe walking or jogging in the area if you are inclined.I would and will stay here again on my next trip to this area.More</t>
   </si>
   <si>
+    <t>Raychel162</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r152002478-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1231,9 @@
   </si>
   <si>
     <t>I've been staying here for almost a month now and love it! I was a bit skeptical about staying at a choice hotel brand, but this Comfort Suites has made me reconsider that. New equipment in the gym, outdoor pool and hot tub, quiet rooms, and fantastic managers reception every Tuesday and Wednesday. No cheap yellow tail here, they're serving Woodbridge, Clois Du Bois, etc.More</t>
+  </si>
+  <si>
+    <t>Kimberly W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r141357603-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -1156,6 +1267,9 @@
 I will say the breakfast the next morning was decent. It tasted fine and there was plenty of it. The fact that it was free was the only reason I chose poor instead of terrible. I will not stay at this hotel next time I'm in the area....I stayed at this hotel because I had a business meeting in Roanake, and it was very close to where I needed to be. When I first arrived after driving 4 hours from Houston, I wanted to lay down, watch TV and relax. The air must have been turned off for a while because the temp in the room was stifling. Also, the TV didn't work. I called the front desk and was told the front desk girl was the only employee and could not come up to help me. I decided to use my Ipad instead of watch TV, and couldn't do that either because the wifi was not wokring. I called down once agan and was told to come get another key for a different room. Good news! The TV and wifi worked in the second room. However, there was no hot water when I had a shower that evening. When I got into bed, I noticed there were 5 half sized pillows to sleep on. By half sized, I mean they were the size of a square throw pillow. So, it was not too comfortable of a night's sleep. I will say the breakfast the next morning was decent. It tasted fine and there was plenty of it. The fact that it was free was the only reason I chose poor instead of terrible. I will not stay at this hotel next time I'm in the area. I'd rather drive a little further to stay in something better taken care of than to stay here.More</t>
   </si>
   <si>
+    <t>HOGRIDER1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r120582101-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1312,9 @@
     <t>We have stayed here three times while visiting relatives in Keller, and have found the rooms to be clean, large, and comfortable. Granted, the hotel is not within walking distance of anything, but downtown Roanoke is coming to life quite nicely and only a few minutes by car. We've also found it to be the only hotel from which we can easily find our relative's house. (Ft. Worth can be confusing.) My only nit pick would be that two of the times we stayed here, the spa (outside) was not functional. Once it was freezing, and this time it was broken. Other than that, it's been a perfect place for us, with very lovely staff and good breakfasts.More</t>
   </si>
   <si>
+    <t>Tony R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r116016911-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1336,9 @@
     <t>We stayed here four days while visiting family in nearby Keller, so we weren’t looking for a romantic hideaway or a spa!  What we got was exactly what we wanted though, a large, clean functional room with a king bed and all we needed and more – kitchenette unit and so on. The hotel is pretty new, and they seem to be assiduous in keeping it up and so the website pictures represent it very well. The air con is individual units under the window, so a bit noisy, but then it was 104 degrees outside. The staff were very friendly and accommodating, breakfast was a simple buffet style. Lobby coffee is ad lib 24 hrs. If you want a very clean and comfortable business-like hotel, we would definitely recommend it.For nearby restaurants, go to the Prairie House on 377 – never disappointing – and for diner breakfasts (all day) you can’t beat the Dove Creek Cafe, also on 377. It’s a 1960’s time warp – great characters!More</t>
   </si>
   <si>
+    <t>TOG11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r90916740-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1357,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Kevin62061</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r85754252-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1379,9 @@
   </si>
   <si>
     <t>I recently stayed at the Comfort Suites in Roanoke Tx.  I have to let you know of my dissatisfaction with the breakfast set up for that morning.There were several items that were poor/ subpar:•	hair in the ice where the yogurt was•	no milk•	batter for the waffles was bad (not mixed correctly and did not taste good when cooked)•	no juices•	grease on the handles for hot item•	waffle maker look like it had not been cleaned in monthsWhen I pointed out some of these items I got no response. They had no milk / juice.  There was a lack of concern and quality.  I travel often enough but this setup was the worst I had seen in a while.  I pay good money for this room / breakfast and I am very dissatisfied.I emailed the Comfort Suite management about my experience with no response.I travel to Fort Worth area enough but I will make sure that my colleagues will know not to stay at the  Comfort Suites in Roanoke.More</t>
+  </si>
+  <si>
+    <t>djbTx</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r77755508-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -1781,43 +1907,47 @@
       <c r="A2" t="n">
         <v>41062</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>4898</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1835,56 +1965,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41062</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1900,56 +2034,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41062</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125638</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1967,56 +2105,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41062</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125639</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2032,56 +2174,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41062</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125640</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2093,56 +2239,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41062</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125641</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2154,56 +2304,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41062</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125642</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2219,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -2238,37 +2392,37 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2286,56 +2440,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41062</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>16624</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="L10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2347,56 +2505,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41062</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2414,56 +2576,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41062</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125644</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2481,56 +2647,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41062</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>54432</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2546,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41062</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7638</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2607,47 +2781,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41062</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>110613</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -2664,56 +2842,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41062</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5091</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2729,56 +2911,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41062</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125645</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2796,56 +2982,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41062</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125646</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2863,56 +3053,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41062</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>72541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2930,56 +3124,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41062</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125647</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2997,56 +3195,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41062</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>14754</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3062,56 +3264,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41062</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3929</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3129,56 +3335,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41062</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125648</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3200,56 +3410,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41062</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125649</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3271,56 +3485,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41062</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125650</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3342,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41062</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3411,56 +3633,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41062</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125652</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3482,56 +3708,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41062</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125653</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3553,56 +3783,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41062</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125654</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3614,56 +3848,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41062</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3685,56 +3923,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41062</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>356</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3756,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41062</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>91416</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3817,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41062</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>7453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3888,56 +4138,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41062</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>13684</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3959,56 +4213,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41062</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125652</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4030,56 +4288,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41062</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125655</v>
+      </c>
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4101,56 +4363,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41062</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125656</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4172,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="X37" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41062</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125657</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4243,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="X38" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41062</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125658</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4314,56 +4588,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="X39" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41062</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>16295</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4385,56 +4663,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="X40" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41062</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125659</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4456,56 +4738,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41062</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125649</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4527,56 +4813,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="Y42" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41062</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>30351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>424</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="J43" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4594,56 +4884,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41062</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>16545</v>
+      </c>
+      <c r="C44" t="s">
+        <v>432</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4667,50 +4961,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41062</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125660</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4734,50 +5032,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41062</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125661</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4801,7 +5103,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_103.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_103.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nancy W</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r601645631-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>56555</t>
+  </si>
+  <si>
+    <t>125668</t>
+  </si>
+  <si>
+    <t>601645631</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Family visit in 110 degree days.</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the only one in the area that allowed for cancellation without an upcharge. Others added approximately $20 if you wanted cancel option. Since we are seniors, I won't reserve without it.All staff were courteous and helpful. The room was large with 2 Queens and a sitting area. In room coffee was Green Mountain pods and a Keurig coffee maker. Beds were very comfortable. Room was clean and A/C was wonderfully cold !!! Will stay there whenever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>tinap330, Manager at Comfort Suites Near Alliance, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the only one in the area that allowed for cancellation without an upcharge. Others added approximately $20 if you wanted cancel option. Since we are seniors, I won't reserve without it.All staff were courteous and helpful. The room was large with 2 Queens and a sitting area. In room coffee was Green Mountain pods and a Keurig coffee maker. Beds were very comfortable. Room was clean and A/C was wonderfully cold !!! Will stay there whenever in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r571162165-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
-    <t>56555</t>
-  </si>
-  <si>
-    <t>125668</t>
-  </si>
-  <si>
     <t>571162165</t>
   </si>
   <si>
@@ -189,9 +216,6 @@
     <t>We've stayed here several times when returning to our old neighborhood.  The property is clean and the staff is friendly.  The bathroom could use towel racks so towels can be reused.  Breakfast is just ok, with pretty awful eggs but cute Texas shaped waffles.  There are now Keurigs in the rooms, which is always a nice touch, and I love the lemon water that seems to be standard for this brand.  We chose this property because it is walking distance to a fairly new and very nice Jazzercise center with 50 classes and many great instructors. Something to do if your spouse takes the rental car to work.More</t>
   </si>
   <si>
-    <t>Doug K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r539194046-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -220,9 +244,6 @@
   </si>
   <si>
     <t>Hotel Needs Deep Cleaning, Up-Dating, New Carpet.  My Room had Miss Matched Panting Touch Up's Done, Not Professionally Painted or Ceiling Fixed.   Staff was Friendly, Breakfast Below Average for a Comfort Suites.  This Property is a $65/night Hotel.   Not $100 Plus per NightMore</t>
-  </si>
-  <si>
-    <t>TeamWarrior</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r480577190-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -244,9 +265,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>YourHomewoodSuites, Manager at Comfort Suites Near Alliance, responded to this reviewResponded May 16, 2017</t>
   </si>
   <si>
@@ -257,9 +275,6 @@
   We arrived at the hotel to find out that everything was switched he had rooms, I had rooms, his information was mixed with my information. My new card number was on his room etc. I told the we only needed two rooms for three nights.  He said no problem, well even wave the first night because you showed up at 4 in the morning, which I had already told the GM the previous day. At check out I find out they went ahead and charged me for the first night.  When I get home I found out they hit my card another two times for no shows on two other rooms that I never had. $281.00 went...I made reservations a year in advance for the Pate Swap meet.  I do every year and I do it for two rooms and three nights. My brother does the same thing.  Some how they got the nights, the names, the CC numbers, our mailing addresses all mixed up.  The General Manager calls me because the card I made the reservations on had expired and he wanted to give me a curtsey call.  I gave him the card number and confirmed my two rooms for three nights, no problem.  I asked about my brothers reservations and he said there was no one else with that last name in the system. I told them no problem, I'll let him have one of my rooms.  We arrived at the hotel to find out that everything was switched he had rooms, I had rooms, his information was mixed with my information. My new card number was on his room etc. I told the we only needed two rooms for three nights.  He said no problem, well even wave the first night because you showed up at 4 in the morning, which I had already told the GM the previous day. At check out I find out they went ahead and charged me for the first night.  When I get home I found out they hit my card another two times for no shows on two other rooms that I never had. $281.00 went to $716.00 real quick and it's all based on what they finger into their system.  You can't trust reservations made over the phone with these people because they do and will enter things in wrong on the computer and you don't find out until you get home. They hit my brothers card 6 times and mine 3. I thought when I checked out I was done but this was not the case. STAY AWAY! You can't trust what they tell you on the phone and they can't keep things straight in their own computer. Then hit your card without telling you.More</t>
   </si>
   <si>
-    <t>michaelsalinas86</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r478985421-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -284,9 +299,6 @@
     <t>I stayed at this hotel not very long ago and honestly the worst place to stay. Obviously the "executive cleaning staff" doesn't check things very well because a lamp was broken upon arrival and i didn't think to report it because we didn't need to use the lamp and after my stay i was charged $125 for a lamp. Also, half way through our stay when we first turned on the sink it was clogged and I'm sure the "executive cleaning staff" checked that off the list as well. This hotel is also supposed to be a smoke free establishment, but at one point our whole hallway smelled like marijuana. I was forced to park across the street because the hotel didn't have sufficient parking space for the guests. What kind of hotel doesn't know how much parking space they should have? Also the wifi barely worked. DO NOT STAY HERE.More</t>
   </si>
   <si>
-    <t>meagannguyen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r478985241-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -302,7 +314,124 @@
     <t>Stayed here with a couple of friends and our hotel room was absolutely disgusting. They claim that this hotel is "smoke free" but the whole placed reeked of cigarettes and marijuana. I could barely get any sleep because it was so loud. The bed was uncomfortable and don't get me started about the stains on the pillows. The wifi was pretty bad as well. There was no room for parking so they told us to park across the street and walk. I'm not usually one to write any kind of review, but PLEASE, for your sake do NOT stay here.More</t>
   </si>
   <si>
-    <t>Nebby3</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r473024993-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>473024993</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel in Roanoke area</t>
+  </si>
+  <si>
+    <t>Very clean Hotel. I noticed in the morning time that workers were updating this hotel which is great. They serve a great breakfast. Hotel staff if very friendly and accommodating. I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>tinap330, General Manager at Comfort Suites Near Alliance, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Very clean Hotel. I noticed in the morning time that workers were updating this hotel which is great. They serve a great breakfast. Hotel staff if very friendly and accommodating. I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r473012981-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>473012981</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!!!!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at this hotel last night and I had a great experience there. The hotel was clean and the service was amazing. The staff is very friendly and accommodating there and it's in a great location and fun town. I would highly recommend this hotel for anyone needing a room, whether it's a short stay or long one. They are even doing remodeling now to some of the rooms, and I didn't even realize they were working until I walked out of my room to check out. That's how quiet it was. Go check it out, you won't be disappointed!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at this hotel last night and I had a great experience there. The hotel was clean and the service was amazing. The staff is very friendly and accommodating there and it's in a great location and fun town. I would highly recommend this hotel for anyone needing a room, whether it's a short stay or long one. They are even doing remodeling now to some of the rooms, and I didn't even realize they were working until I walked out of my room to check out. That's how quiet it was. Go check it out, you won't be disappointed!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r441378995-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>441378995</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Nice Stop!</t>
+  </si>
+  <si>
+    <t>Nice fairly new hotel. Stayed her over Thanksgiving holidays while visiting relatives who already had a house full.Bright, clean, quiet and nicely decorated. Elevator did break down twice during our stay, but no fault of the hotels and was quickly up and running again.Breakfast was about what you would expect, several choices rotated daily, but would sure liked to see the server smile! Also the breakfast area is the only complaint I would have. Twelve tables for a 3 story hotel??MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>tinap330, General Manager at Comfort Suites Near Alliance, responded to this reviewResponded December 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2016</t>
+  </si>
+  <si>
+    <t>Nice fairly new hotel. Stayed her over Thanksgiving holidays while visiting relatives who already had a house full.Bright, clean, quiet and nicely decorated. Elevator did break down twice during our stay, but no fault of the hotels and was quickly up and running again.Breakfast was about what you would expect, several choices rotated daily, but would sure liked to see the server smile! Also the breakfast area is the only complaint I would have. Twelve tables for a 3 story hotel??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r427453802-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>427453802</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>Besides being reasonably priced, our room was very clean, comfortable and up to date.  The General Manager, Carl was very outgoing, friendly and made us feel welcome.  Breakfast was as good as you can get for a continental style breakfast and the breakfast hostess was sweet and kept on top of keeping the breakfast food stocked up as the hoards of hungry people swarmed in to devour the breakfast fare as she also kept the tables clean and entire eating area clean for the steady stream of patrons.  We didn't come into contact with any other staff, but if the two We met were any indication, We are sure the rest were just as amazing.  We totally recommend staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>tinap330, General Manager at Comfort Suites Near Alliance, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Besides being reasonably priced, our room was very clean, comfortable and up to date.  The General Manager, Carl was very outgoing, friendly and made us feel welcome.  Breakfast was as good as you can get for a continental style breakfast and the breakfast hostess was sweet and kept on top of keeping the breakfast food stocked up as the hoards of hungry people swarmed in to devour the breakfast fare as she also kept the tables clean and entire eating area clean for the steady stream of patrons.  We didn't come into contact with any other staff, but if the two We met were any indication, We are sure the rest were just as amazing.  We totally recommend staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r402240711-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>402240711</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Worst place to stay ever!</t>
+  </si>
+  <si>
+    <t>The quality of this hotel has gone way down. We have had to switch rooms 3 times due to issues wrong with the rooms/no water being the main thing. Night front guy couldn't stop watching sponge bob long enough to get up and help me. Worst experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>tinap330, General Manager at Comfort Suites Near Alliance, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>The quality of this hotel has gone way down. We have had to switch rooms 3 times due to issues wrong with the rooms/no water being the main thing. Night front guy couldn't stop watching sponge bob long enough to get up and help me. Worst experience!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r364127926-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -332,9 +461,6 @@
     <t>This hotel has clearly seen some better days. The carpet, for instance, had holes. But it was clean, staff was friendly. The breakfast was stereotypical hotel fare, not great but suitable. I love that there are suite rooms as I travel with 4 kids. The room wasn't too crowded with furniture either as some that say they sleep up to 6 are.More</t>
   </si>
   <si>
-    <t>StefanoRimini</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r337305644-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -389,9 +515,6 @@
     <t>After staying at four other Comfort Suites in the past 2 weeks, I was very disappointed in this one.A single small (32 inch?) TV that is placed directly in front of the bed is barely visible from the couch 15 to 20 feet away. Furthermore, unless you rearrange the couch you can't even see the TV due to the partial room divider being in the way.The WiFi internet speed is very poor at 1.2 Mbps and drops the connection on an irregular basis as a result.Finally, the whole room vibrates when the window unit AC is running.After speaking to the Manager (Christine?), she indicated all the rooms had the small TVs; she tried to address the WiFi problems by rebooting the internet system which unfortunately did not improve it's performance.More</t>
   </si>
   <si>
-    <t>Kimberly A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r299562661-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -416,9 +539,6 @@
     <t>We were visiting my brother who recently moved there from Dallas. Very clean rooms and friendly staff. Breakfast was well stocked and area kept clean by attendant. Rooms quiet and ac worked very well considering it was 106 degrees while we were there. Pool area nice and has a nice workout facility. More</t>
   </si>
   <si>
-    <t>Adina N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r284803190-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -440,9 +560,6 @@
     <t>Staff was less than happy to be there 98% of the time, morning breakfast had sour milk and water filled "scrambled" eggs, rooms with 2 beds have 1 bed shoved up against the AC so someone will always be freezing and unable to get out of their side of the bed, TV has close to 10 stations that actually work and of those you have an awful white noise that is louder than the show, pool is surrounded by very tall weeds so if you have allergies watch out, you get locked out right at 11am and they do not warn you so you have to go down stairs to sign the extended night paperwork even though they charge you before you sign the paper, bathtubs are slippery (my 6yr old slipped and hit his head the first night), not much of an area to walk your dog, at night they provide a snack for guest which include a male worker walking around on the phone complaining about the higher ups while he butchers the snack because he cannot use 2 hands to get them off the pan, and so much more.... JUST STAY AWAY FROM HERE. I could type all day how horrible this place is for the amount of money that you will spend, I have stayed at many hotels in different states but this is by far the worst and that is pretty bad since I have...Staff was less than happy to be there 98% of the time, morning breakfast had sour milk and water filled "scrambled" eggs, rooms with 2 beds have 1 bed shoved up against the AC so someone will always be freezing and unable to get out of their side of the bed, TV has close to 10 stations that actually work and of those you have an awful white noise that is louder than the show, pool is surrounded by very tall weeds so if you have allergies watch out, you get locked out right at 11am and they do not warn you so you have to go down stairs to sign the extended night paperwork even though they charge you before you sign the paper, bathtubs are slippery (my 6yr old slipped and hit his head the first night), not much of an area to walk your dog, at night they provide a snack for guest which include a male worker walking around on the phone complaining about the higher ups while he butchers the snack because he cannot use 2 hands to get them off the pan, and so much more.... JUST STAY AWAY FROM HERE. I could type all day how horrible this place is for the amount of money that you will spend, I have stayed at many hotels in different states but this is by far the worst and that is pretty bad since I have never left negative feedback.More</t>
   </si>
   <si>
-    <t>Bobbie R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r282167469-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -467,9 +584,6 @@
     <t>Nothing fancy here, just a clean comfortable place to spend the night. Breakfast was average. The pool was quite enjoyable, and the hot tub saved my muscles after a long day of work. I will stay again next time I'm out that way.More</t>
   </si>
   <si>
-    <t>Deanna H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r274090030-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -497,9 +611,6 @@
     <t>The hotel was booked almost full.  We were later than anticipated. And very tired. The front desk graciously let our daughter-law who was waiting for us to check us in so that all we had to do was walk into our room. The room was a perfect accommodation for the challenges my husband has.  We were so appreciative of the staff and everything they did for us.  Thank you Comfort Suites!More</t>
   </si>
   <si>
-    <t>John P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r261768002-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -527,9 +638,6 @@
     <t>My parents rented a room here on their last visit, good clean safe rooms, decent bare bones breakfast, wifi service. If you have business in the Solana complex or are visiting downtown Roanoke for the upscale restaurants, Hawaiian Falls or Texas Motor Speedway this hotel is one of the best values around!More</t>
   </si>
   <si>
-    <t>Srichardson86</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r250219357-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -554,9 +662,6 @@
     <t>The hotel has been there a while and it's starting to show its age, but overall still a nice place. Rooms are very clean and the mattress was comfortable. Easy access to surrounding restaurants and attractions. Very accommodating staff. Will stay again if the need arisesMore</t>
   </si>
   <si>
-    <t>James H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r244722484-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -584,9 +689,6 @@
     <t>I tried to cancel a multi night hotel stay after 3pm. I should have been charge one night, they charged me the full amount. They said it was cause I used expedia. I do not use expedia willing so if that was the case they need to work on there website. I feel like this hotel robbed me. I will never use a Comfort Suites for the rest of my life. I will sooner sleep in my truck.More</t>
   </si>
   <si>
-    <t>Gabelex</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r242166501-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -614,9 +716,6 @@
     <t>Stayed long weekend - near attractions and multi-taste restaurants, from fast food to continental; Texas Motor Speedway and a water park nearby; close to upscale Southlake shopping, restaurants and theater complex. Nice and clean room with divided "living" area. Competitively priced, $10 daily pet fee. Pet friendly, as is staff - nice breakfast array.More</t>
   </si>
   <si>
-    <t>FoxMulderFBI</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r233858751-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -642,9 +741,6 @@
   </si>
   <si>
     <t>Hotel staff were friendly from the get go and the room was spacious and clean. Beds were clean and comfortable. The breakfast was better than your typical free breakfast, with fresh biscuits and real eggs. There were a few hiccups, however. I'm not sure who designed the exterior of the hotel, but placing giant floodlights right outside the ground floor windows does not seem like a smart idea. Even with the blackout shades closed our room was lit up like we were next to a football stadium. The shower would not turn off once turned out, no matter how tightly you turned the knob. The air conditioners are apparently controlled from the front desk, so you have to make a special request to have yours activated. We also noticed our AC unit's front vent was EXTREMELY dirty, with clumps of what looked to be mud in the vent. Other than those issues we had a nice stay here.More</t>
-  </si>
-  <si>
-    <t>Traverler1515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r229399374-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -680,9 +776,6 @@
 Lastly, the Wi-Fi at the hotel was difficult to log onto and had limited "high speed"....Generally have good to excellent experiences with Comfort Suites Hotels, this location we experienced some problems.  Pros:  Generally clean,  better than average fitness center, and friendly / helpful staff.Cons: Our room was located on the ground level.  It was the type with adjacent access to the neighboring room. We could hear their normal volume conversations as if they were in the room with us.  Outside our window was a grassy field, some sort of bugs were getting into our room thru cracks around the window. They would appear suddenly on the ceiling; I killed at least 8 of these bugs within a 40 minute span of time. The last straw was when the wife found one next to her in bed. The desk clerk quickly moved us to an "upgrade room" on the second floor. The next room was a whole new set of problems. First, the AC sounded like an industrial machine. It was so loud we could not use it despite the near 90 degree Texas heat. Next, the leaky toilet flapper caused the toilet to constantly re-fill itself.  I had to shut off the water to the toilet in order to stop the noise.  The stopper on the tub was broken and there was black mildew in the corner between the tub and the floor.  Not exactly an "upgrade room".Lastly, the Wi-Fi at the hotel was difficult to log onto and had limited "high speed". Overall, definitely room for improvement.More</t>
   </si>
   <si>
-    <t>loulou928</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r227954938-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -707,9 +800,6 @@
     <t>I stayed here for 7 nights while my daughter attended a softball tournament in the area.  It was very clean and the staff was very helpful.  The room was spacious and clean. Location was convenient to many attractions.  It was less than 30 minutes to both Fort Worth and Dallas.  There were several fabulous restaurants in town.  All around a good experience.More</t>
   </si>
   <si>
-    <t>Jennifer T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r227801412-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -726,9 +816,6 @@
   </si>
   <si>
     <t>Booked a room here to see an event at Texas Motor Speedway. The front desk staff was extremely nice and check in was fast. Our room was right by the lobby, but it was quiet all night. Never heard anyone in the parking lot or in the lobby (we stayed a Saturday night).  The room was clean (had a microwave and small fridge) and beds were very comfortable. Easy to get in &amp; out and close to Roanoke restaurants (try Babe's Chicken Dinner!). Would definitely stay again!More</t>
-  </si>
-  <si>
-    <t>Susan F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r224915432-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -764,9 +851,6 @@
 We usually had to wait for someone to show up at the desk. And there was no one around at breakfast to help - probably because they couldn't afford to keep that much staff on for so few rooms. We went out to the pool and our room keys would not let us in.  We had to walk around through the parking lot and lobby.  We told the person at the desk and she said, "oh, the maintenance man is not here right now."...Generally, our stay was fine.  But I don't feel like it was a very good value for what I paid for the room, considering the hotel was nearly empty.  We never had to wait for the elevator. Employees were pleasant and tried to be helpful.  The hotel is undergoing some remodeling, so the lobby is bare.  That wasn't a problem.  I would probably give this hotel another chance at some later time.Free wifi was good, and our room had a nice view.  Frig, sink, and microwave were all handy to have available.Our room was extremely hot when we arrived.  It took hours to cool down to an acceptable temperature.  The room was clean, except the back of the bathroom door which was very dirty. The ice machine on our floor had mildew in the bottom.  The room was quiet, but an outside spotlight shined on our window making it hard to get to sleep.We usually had to wait for someone to show up at the desk. And there was no one around at breakfast to help - probably because they couldn't afford to keep that much staff on for so few rooms. We went out to the pool and our room keys would not let us in.  We had to walk around through the parking lot and lobby.  We told the person at the desk and she said, "oh, the maintenance man is not here right now." A brief apology would have been appropriate.The location is great for the Texas Motor Speedway and the new Hawaiian Falls.  The town of Roanoke is nice for shopping and dinner.More</t>
   </si>
   <si>
-    <t>CLIF S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r212939578-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -794,9 +878,6 @@
     <t>I stayed for two weeks and will never do it again.TV is very poor. 1st night I only had 4 channels and picked up a few more every day but had no guide so usually gave up and went to bed . Had a king bed reserved but only rooms with 2 beds were aval.,and they were very firm. Did have 1 night with a dog barking non stop in the room next to me alsoMore</t>
   </si>
   <si>
-    <t>Gaylan M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r210850654-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -821,9 +902,6 @@
     <t>Although this hotel is right off of a very busy road with a lot of truck traffic I found the room to be very quite.  For this price hotel the bed was very comfortable.  Breakfast was par for a hotel of this caliber.  Nothing fancy but plenty substantial.  Overall I rated the hotel as very good.  I would stay here again.  One other thing that really impressed me was when I checked in the front desk person noticed that I was there attending a conference.  He commented they really appreciated the business.  Nice touch!More</t>
   </si>
   <si>
-    <t>tu2rgirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r204670686-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -845,9 +923,6 @@
     <t>We've been here several times as we have relatives in the Roanoke, Keller area. It's a nice hotel, close to the speedway (which we've never been to). The rooms are big, clean and the beds, comfortable. The one thing I did not like was the TV reception. Since we stayed a couple of days, I did want to watch some shows, but the reception was all kind of snowy, except for FOX, which seemed to come in really clear. The hotel is still fairly new and nicely decorated.More</t>
   </si>
   <si>
-    <t>connie817</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r200413508-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -875,9 +950,6 @@
     <t>Room was very comfortable and they accommodated my dog.  I had a room at the end of the hall near the door so we could get outside quickly for walks.  Breakfast was pretty good, just a smidge above average (I guess the sausage gravy swayed me)....good biscuits.   This is my second stay at the hotel and I will stay there again.  I was there 3 nights.  There was ample room around outside of hotel to walk the dog, and a neighborhood with sidewalks close by.  Very clean.  Updated.  There was a workout area and laundry facility (one washer/dryer and it was kind of old and beat up but I used it anyway.)More</t>
   </si>
   <si>
-    <t>smackArkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r198890693-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -900,9 +972,6 @@
   </si>
   <si>
     <t>We stayed here on a stop over between destinations.  There were some minor maintenance issues that needed to be addressed.  The exterior lights made it uncomfortable to leave the curtains open.  Toiletries were skimpy.  We left early in the morning and missed the breakfast, but they had drying fans in the breakfast area all night.  No explanation offered from the staff (I did not ask about it).  It appeared that they were still blowing when we left in the morning.More</t>
-  </si>
-  <si>
-    <t>JohnHagopian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r192498251-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -934,9 +1003,6 @@
 The real improvement over last time is in the staff. Karl "Optimus Prime" Ruyle (the one I raved about last time) has been promoted to manager. Great move by the owners. I have definitely noticed a change in culture of the staff. If you read my other reviews, you know that one of my pet peeves is photocopies and scans. Charging for this is really insulting. The previous manager was really nice and did this for me without any attitude. Karl has gone one step above. He is teaching his staff to provide this top notch service as well. So this time, I met one of his staff Zach "ironhide". He was being taught how to do the scans yesterday. I also met Nancy who had moved here from Long Beach. She was very nice at the front desk. One other person (who unfortunately I did not get his name) was the maintenance guy who fixed the heater in the room, and then took the extra step to follow up and...This is my third stay at this hotel, and I like to stay here whenever I am in Dallas. I have to say, this is by far my best experience. The facility is really nice. Everything is clean and fresh. There are little extras here that travelers like me appreciate. Lots of plugs for your electronics. Usb ports are a nice touch that are not in all comfort inns. The real improvement over last time is in the staff. Karl "Optimus Prime" Ruyle (the one I raved about last time) has been promoted to manager. Great move by the owners. I have definitely noticed a change in culture of the staff. If you read my other reviews, you know that one of my pet peeves is photocopies and scans. Charging for this is really insulting. The previous manager was really nice and did this for me without any attitude. Karl has gone one step above. He is teaching his staff to provide this top notch service as well. So this time, I met one of his staff Zach "ironhide". He was being taught how to do the scans yesterday. I also met Nancy who had moved here from Long Beach. She was very nice at the front desk. One other person (who unfortunately I did not get his name) was the maintenance guy who fixed the heater in the room, and then took the extra step to follow up and make sure everything was great with me. This is what I mean by raising the level of service. Even the people who clean the rooms have gotten better. They FULLY stock the room with towels, soap, and most of all COFFEE. Trust me, there is coffee in the lobby, but it is a nice touch to have enough coffee stocked in your room that you don't have to leave your room in the middle of the night. Well done, Tina Patel on upgrading this hotel. I look forward to staying here again next time I am in Dallas.More</t>
   </si>
   <si>
-    <t>lousueCocoaBeachFl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r188458733-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -964,9 +1030,6 @@
     <t>Stayed 3 nights while visiting family in the area. The hotel was very quiet. We thought that it was above average in cleanliness. The staff was friendly and professional. Morning breakfast was fresh with a nice variety of selections. We will definitely stay again when we come back.More</t>
   </si>
   <si>
-    <t>Mark S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r187530586-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -991,9 +1054,6 @@
     <t>I really enjoyed my stay here. The staff was very accommodating and professional. The breakfast was delicious. The hotel is a short drive from DFW which was a big plus. I would definitely stay at this location again.More</t>
   </si>
   <si>
-    <t>Betty L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r182762183-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1021,9 +1081,6 @@
     <t>We spent 5 days here last week and had a very nice experience.  The staff was pleasant and helpful, they even put our group in adjoining rooms even tho we didn't arrive together.  Breakfast was excellent and very complete with waffles, eggs, sausage, biscuits and gravy, and many other items.  Coffee was available in the lobby at all times and if we ever get back to Texas we will stay there again. My only complaint was the TV was very iffy and the closet doors did not work well. The LeBeau family.More</t>
   </si>
   <si>
-    <t>TexKeystone</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r181426657-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1042,9 +1099,6 @@
     <t>Convenient to IH35W, 114, and the Alliance Corridor, this hotel is a stones throw from Texas Motor Speedway.   I stayed there with a handful of friends, all of whom were joining me for a performance driving course at the speedway.  Proximity isn't the only thing the hotel has going for it.  Although from the faded sign, it's obviously an aged property, inside it seems to have been remodeled.   The wifi is free and works perfectly, excellent channel variety on the flat screen tv, large mini suite type room which, although simple, was clean and had plenty of power accessibility for my tech gadgets.     Make no mistake, it's not a luxury hotel, but it's not intended to be.    As a limited service value focused hotel, it's priced right, includes a free hot breakfast, and it convenient to a few restaurants and convenience stores.    If I'm ever back in the area, I'd try it again.    Thank you to the front desk staff for the courtesy.  More</t>
   </si>
   <si>
-    <t>Fred D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r176234857-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +1126,6 @@
     <t>The hotel was great.. Very clean.. I just left there for business purpose..The hotel manager there was terrific... she help me with some matter I was having with my bank. that was great...she went the extra mile in helping me... I will stay there again...thanks.....from FredMore</t>
   </si>
   <si>
-    <t>M S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r172105583-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1120,9 +1171,6 @@
     <t>I stay in different hotels for work across the country. I have come to expect a certain level from any hotel brand as a standard. Clean and quiet room; friendly staff; free breakfast; plenty of towels; and free wifi are the standard. This particular location exceeded my expectations. The workers in particular went above and beyond. Girl by the name Katina, and a guy by the name Karl (he prefers Optimus Prime). All of the copies and scans that I needed were taken care of right away. This, along with meeting all of the other standards earned them an excellent review from me.More</t>
   </si>
   <si>
-    <t>Wongs1985</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r162418747-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1148,9 +1196,6 @@
   </si>
   <si>
     <t>Nice place to stay .... comfortable, clean, and easy access to interstates.This property is located up on a hill from TX114. You can see TMS from your window! Clean, secluded property, a Waffle House and 7/11 within walking distance and restaurants within a 15 min drive.  Small pool and hot tub outdoors in back.  Small lobby. Clean and welcoming. Ice and vending on each floor. Friendly staff.Comfortable room: clean bathroom, plenty of towels, clean linens, bed was ok, small refrig, small microwave, kitchenette counter space with cabinet and a small sink, sliding glass door on closet needs to be replaced, low-backed couch isn't comfortable to sit on but is ok for lounging, plenty of desk work space with plenty of outlets, comfortable business deskchair. AC works fine.  TV signal is below average with local channels, ESPN, a few children's channels, SPEED, several news channels, weather channel, TBS. Good internet signal and cell phone signal throughout property.Fitness room is sufficient: clean, water available, TV, nice AC, univeral, treadmill, 2 bikes, elliptical .... some are a bit creaky but work fine.Breakfast was yummy: cereals, breads, eggs/bacon/gravy/biscuits, waffles, juices, coffee/tea, fresh fruit, danish, attended regularly, clean tables.  Coffee/hot tea service available all day in lobby.Washing machine/dryer also available.More</t>
-  </si>
-  <si>
-    <t>JennVB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r155021944-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -1182,9 +1227,6 @@
 I am still a guest here through tomorrow a.m., but foresee no issues with checkout. In the past, I have had...I live in the Metroplex, but frequently find a need to check into area hotels for business purposes. This was my first time visiting the Comfort Suites in Roanoke. Based on the overall amenities, price and friendliness of the hotel staff, this is now my hotel of choice. Karl, Katina and Laura at the front desk have been friendly, helpful and courteous. They have gone out of their way to provide any extras that I have requested, and have been knowledgeable about the area, local restaurants, etc. My room is clean, spacious and very pleasant to spend time in. The room is equipped with a mini-refrigerator and microwave, so convenient! Room layout is a king bed, combination sitting/ work area w/ office desk, high speed connection and office chair. High speed connection works extremely well, as opposed to even 5 star hotels I’ve stayed that have spotty connectivity issues or frequent timeouts. The only minor issue is that the cable TV package is fairly limited, but hey, I’m here to get work done. The hot breakfasts are definitely a step above most hotels “Continental breakfasts”.The pool is VERY clean and well kept (as opposed to some hotels where pool maintenance is a bit sketchy) and the hot tub is a real bonus after a day spent on my laptop.I am still a guest here through tomorrow a.m., but foresee no issues with checkout. In the past, I have had incidents with bogus room charges or additional taxes/ service fees popping up on my credit card at a later date or upon checkout. However, this has happened only in hotels offering full meal service, gift shop amenities, etc. If this should occur w/ Comfort Suites, I will check back and amend my review. But based on my stay to date, I foresee nothing but smooth sailing.My overall experience has been a cut above other hotels in this class, and CS is slightly less expensive than hotels closer to DFW by a few miles. I will be coming here again and again, and would highly recommend this Comfort Suites for business and personal travel. Hope this review helps!More</t>
   </si>
   <si>
-    <t>MrVTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r153488178-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1203,9 +1245,6 @@
     <t>Staying here at the moment on a week long business trip. While it is by no means a 5 star luxury hotel, I think it's a fantastic bargain for what they charge. The staff members I've encountered have all been courteous and helpful, and there are many restaurants in Roanoke between a 5-10 minute drive away, and a 7-11 convenience store about a 2 minute drive away.I did occasionally hear some traffic noise from nearby TX114, but it was not offensive and I quickly became used to it.There's no cooked to order beakfast, but there are plentiful amounts of juice, coffee, hot and cold cereal, bagels, rolls, scrambled eggs, biscuits and gravy, make your own waffles, yogurt, and more, so no excuse to go hungry in the morning.Gym is a little small, with a treadmill, elliptical, stationary bikes, and universal weight machine, but I found plenty enough to get me sweating when I chose to.Having to reauthorize yourself to the wi-fi connection every day was a little bit of a pain, but since the wi-fi is free, is a small price to pay.In a bit of a secluded area, so you could feel safe walking or jogging in the area if you are inclined.I would and will stay here again on my next trip to this area.More</t>
   </si>
   <si>
-    <t>Raychel162</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r152002478-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1231,9 +1270,6 @@
   </si>
   <si>
     <t>I've been staying here for almost a month now and love it! I was a bit skeptical about staying at a choice hotel brand, but this Comfort Suites has made me reconsider that. New equipment in the gym, outdoor pool and hot tub, quiet rooms, and fantastic managers reception every Tuesday and Wednesday. No cheap yellow tail here, they're serving Woodbridge, Clois Du Bois, etc.More</t>
-  </si>
-  <si>
-    <t>Kimberly W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r141357603-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
@@ -1267,9 +1303,6 @@
 I will say the breakfast the next morning was decent. It tasted fine and there was plenty of it. The fact that it was free was the only reason I chose poor instead of terrible. I will not stay at this hotel next time I'm in the area....I stayed at this hotel because I had a business meeting in Roanake, and it was very close to where I needed to be. When I first arrived after driving 4 hours from Houston, I wanted to lay down, watch TV and relax. The air must have been turned off for a while because the temp in the room was stifling. Also, the TV didn't work. I called the front desk and was told the front desk girl was the only employee and could not come up to help me. I decided to use my Ipad instead of watch TV, and couldn't do that either because the wifi was not wokring. I called down once agan and was told to come get another key for a different room. Good news! The TV and wifi worked in the second room. However, there was no hot water when I had a shower that evening. When I got into bed, I noticed there were 5 half sized pillows to sleep on. By half sized, I mean they were the size of a square throw pillow. So, it was not too comfortable of a night's sleep. I will say the breakfast the next morning was decent. It tasted fine and there was plenty of it. The fact that it was free was the only reason I chose poor instead of terrible. I will not stay at this hotel next time I'm in the area. I'd rather drive a little further to stay in something better taken care of than to stay here.More</t>
   </si>
   <si>
-    <t>HOGRIDER1949</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r120582101-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1312,9 +1345,6 @@
     <t>We have stayed here three times while visiting relatives in Keller, and have found the rooms to be clean, large, and comfortable. Granted, the hotel is not within walking distance of anything, but downtown Roanoke is coming to life quite nicely and only a few minutes by car. We've also found it to be the only hotel from which we can easily find our relative's house. (Ft. Worth can be confusing.) My only nit pick would be that two of the times we stayed here, the spa (outside) was not functional. Once it was freezing, and this time it was broken. Other than that, it's been a perfect place for us, with very lovely staff and good breakfasts.More</t>
   </si>
   <si>
-    <t>Tony R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r116016911-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1336,9 +1366,6 @@
     <t>We stayed here four days while visiting family in nearby Keller, so we weren’t looking for a romantic hideaway or a spa!  What we got was exactly what we wanted though, a large, clean functional room with a king bed and all we needed and more – kitchenette unit and so on. The hotel is pretty new, and they seem to be assiduous in keeping it up and so the website pictures represent it very well. The air con is individual units under the window, so a bit noisy, but then it was 104 degrees outside. The staff were very friendly and accommodating, breakfast was a simple buffet style. Lobby coffee is ad lib 24 hrs. If you want a very clean and comfortable business-like hotel, we would definitely recommend it.For nearby restaurants, go to the Prairie House on 377 – never disappointing – and for diner breakfasts (all day) you can’t beat the Dove Creek Cafe, also on 377. It’s a 1960’s time warp – great characters!More</t>
   </si>
   <si>
-    <t>TOG11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r90916740-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1384,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>Kevin62061</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r85754252-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1381,9 +1405,6 @@
     <t>I recently stayed at the Comfort Suites in Roanoke Tx.  I have to let you know of my dissatisfaction with the breakfast set up for that morning.There were several items that were poor/ subpar:•	hair in the ice where the yogurt was•	no milk•	batter for the waffles was bad (not mixed correctly and did not taste good when cooked)•	no juices•	grease on the handles for hot item•	waffle maker look like it had not been cleaned in monthsWhen I pointed out some of these items I got no response. They had no milk / juice.  There was a lack of concern and quality.  I travel often enough but this setup was the worst I had seen in a while.  I pay good money for this room / breakfast and I am very dissatisfied.I emailed the Comfort Suite management about my experience with no response.I travel to Fort Worth area enough but I will make sure that my colleagues will know not to stay at the  Comfort Suites in Roanoke.More</t>
   </si>
   <si>
-    <t>djbTx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r77755508-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -1403,6 +1424,82 @@
   </si>
   <si>
     <t>I am typically a huge fan of Comfort Suites, but would not recommend this one.  Off to a rough start when upon arrival in the heat of a Texas summer, the A/C in the room was not on - not at all.  Room was stifling, and took a couple of hours to even become bearable.  So much for arriving and getting some rest.  Others in our party had the same experience, so it wasn't just one room.  Rooms were very worn.  Hot tub and pool were filthy.  Breakfast was picked over to the point of almost non-existence, and one person was staffing front desk and attempting to handle breakfast room.  Reservations were messed up.  At one point (in the middle of the day) had to literally wake up front desk clerk to ask a question.  Very disappointing stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r71404828-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>71404828</t>
+  </si>
+  <si>
+    <t>07/18/2010</t>
+  </si>
+  <si>
+    <t>Great service, close to Motor Speedway</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by a clean room, quick, friendly service and complimentary beer, wine and snacks in the lobby. Breakfast is hot, hearty and included. I can't say enough about the friendliness, spacious room and great service!</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r67070507-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>67070507</t>
+  </si>
+  <si>
+    <t>06/10/2010</t>
+  </si>
+  <si>
+    <t>Great Value and Spacious</t>
+  </si>
+  <si>
+    <t>Just about 20 minutes from DFW.  Booked through Priceline for $62.  Spacious rooms. Had a King with sofa, chair table, mini fridge and micro.  Spacious bathroom as well.  Staff was great and the location quiet.  A little isolated from other amenities but they are just a quick drive away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r3632792-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>3632792</t>
+  </si>
+  <si>
+    <t>07/02/2005</t>
+  </si>
+  <si>
+    <t>Nice and new, but woefully understaffed (and watch out for the ants...)</t>
+  </si>
+  <si>
+    <t>We were passing through Denton/Roanoke on our way to the San Antonio area, and decided to stop for the night at the Comfort Suites.  The hotel is a little hard to find, since once you get off the Interstate there are no signs to tell you where to go. Luckily, we drove far enough to see the hotel and stop.
+On the positive side...
+The hotel is new, clean, quiet, and well decorated.  The rooms (all were "suites" -- two beds and a sofa) were large and well appointed.  Note:  If you're hungy, order a pizza from (I believe) Mr. Jims's.  We got the garlic butter crust meaty pizza, and it was delicious and delivered quickly on a Saturday night.  The outside pool is of average size for a small hotel, but it was clean and heated, as was the jacuzzi.
+Now, for the downside...
+When we cam back to our third-floor room to change after swimming, my son, who was sitting on the floor, was bitten twice by ants.  We didn't think much about it at the time, thinking that maybe they came with us somehow. However, during dinner our kids dropped a few cracker crumbs on the floor.  Within a few minutes, my son noticed that several of the crumbs were moving...
+We did some looking around the room, and discovered that there were dozens, if not hundreds, of ants in the room, including at least a dozen...We were passing through Denton/Roanoke on our way to the San Antonio area, and decided to stop for the night at the Comfort Suites.  The hotel is a little hard to find, since once you get off the Interstate there are no signs to tell you where to go. Luckily, we drove far enough to see the hotel and stop.On the positive side...The hotel is new, clean, quiet, and well decorated.  The rooms (all were "suites" -- two beds and a sofa) were large and well appointed.  Note:  If you're hungy, order a pizza from (I believe) Mr. Jims's.  We got the garlic butter crust meaty pizza, and it was delicious and delivered quickly on a Saturday night.  The outside pool is of average size for a small hotel, but it was clean and heated, as was the jacuzzi.Now, for the downside...When we cam back to our third-floor room to change after swimming, my son, who was sitting on the floor, was bitten twice by ants.  We didn't think much about it at the time, thinking that maybe they came with us somehow. However, during dinner our kids dropped a few cracker crumbs on the floor.  Within a few minutes, my son noticed that several of the crumbs were moving...We did some looking around the room, and discovered that there were dozens, if not hundreds, of ants in the room, including at least a dozen in one of the beds.  I went down to the front desk to let the hotel staff know, they quickly moved us to another room, but at no time did they apologize for the inconvienence.At bedtime, I pulled out the sofa bed for my daughter to sleep on, and found that there were no sheets on it.  My wife called down to the front desk to have sheets sent up, but since they hotel was understaffed (the girl there was the only employee present), she could not bring them up -- I had to go down and get them from her.  After getting the sheets and returning to the room, I discovered that I had only been given one sheet and a bedspread.  I went down again to get a top sheet and blanket, and was given a sheet and another bedspread -- apparently they had no blankets to spare.Once the morning came, we went down to breakfast, only to find that the food was nearly all gone, the bananas were as green as Kermit the Frog, every table was dirty, and there was no staff there.  I went into the supply room myself to at least get cups for juice and milk, and on the way out passed the person taking care of the breakfast room (who was also working the front desk and couldn't spend much time taking care of food). She then brought out some food, but quickly returned to the front desk without cleaning any tables.  We quickly ate what food we could and returned to our room to get our bags and leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were passing through Denton/Roanoke on our way to the San Antonio area, and decided to stop for the night at the Comfort Suites.  The hotel is a little hard to find, since once you get off the Interstate there are no signs to tell you where to go. Luckily, we drove far enough to see the hotel and stop.
+On the positive side...
+The hotel is new, clean, quiet, and well decorated.  The rooms (all were "suites" -- two beds and a sofa) were large and well appointed.  Note:  If you're hungy, order a pizza from (I believe) Mr. Jims's.  We got the garlic butter crust meaty pizza, and it was delicious and delivered quickly on a Saturday night.  The outside pool is of average size for a small hotel, but it was clean and heated, as was the jacuzzi.
+Now, for the downside...
+When we cam back to our third-floor room to change after swimming, my son, who was sitting on the floor, was bitten twice by ants.  We didn't think much about it at the time, thinking that maybe they came with us somehow. However, during dinner our kids dropped a few cracker crumbs on the floor.  Within a few minutes, my son noticed that several of the crumbs were moving...
+We did some looking around the room, and discovered that there were dozens, if not hundreds, of ants in the room, including at least a dozen...We were passing through Denton/Roanoke on our way to the San Antonio area, and decided to stop for the night at the Comfort Suites.  The hotel is a little hard to find, since once you get off the Interstate there are no signs to tell you where to go. Luckily, we drove far enough to see the hotel and stop.On the positive side...The hotel is new, clean, quiet, and well decorated.  The rooms (all were "suites" -- two beds and a sofa) were large and well appointed.  Note:  If you're hungy, order a pizza from (I believe) Mr. Jims's.  We got the garlic butter crust meaty pizza, and it was delicious and delivered quickly on a Saturday night.  The outside pool is of average size for a small hotel, but it was clean and heated, as was the jacuzzi.Now, for the downside...When we cam back to our third-floor room to change after swimming, my son, who was sitting on the floor, was bitten twice by ants.  We didn't think much about it at the time, thinking that maybe they came with us somehow. However, during dinner our kids dropped a few cracker crumbs on the floor.  Within a few minutes, my son noticed that several of the crumbs were moving...We did some looking around the room, and discovered that there were dozens, if not hundreds, of ants in the room, including at least a dozen in one of the beds.  I went down to the front desk to let the hotel staff know, they quickly moved us to another room, but at no time did they apologize for the inconvienence.At bedtime, I pulled out the sofa bed for my daughter to sleep on, and found that there were no sheets on it.  My wife called down to the front desk to have sheets sent up, but since they hotel was understaffed (the girl there was the only employee present), she could not bring them up -- I had to go down and get them from her.  After getting the sheets and returning to the room, I discovered that I had only been given one sheet and a bedspread.  I went down again to get a top sheet and blanket, and was given a sheet and another bedspread -- apparently they had no blankets to spare.Once the morning came, we went down to breakfast, only to find that the food was nearly all gone, the bananas were as green as Kermit the Frog, every table was dirty, and there was no staff there.  I went into the supply room myself to at least get cups for juice and milk, and on the way out passed the person taking care of the breakfast room (who was also working the front desk and couldn't spend much time taking care of food). She then brought out some food, but quickly returned to the front desk without cleaning any tables.  We quickly ate what food we could and returned to our room to get our bags and leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d125668-r2591545-Comfort_Suites_Near_Alliance-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>2591545</t>
+  </si>
+  <si>
+    <t>09/21/2004</t>
+  </si>
+  <si>
+    <t>Nice room, new hotel</t>
+  </si>
+  <si>
+    <t>I was in town for an Indycar race in June.  The hotel is new with clean rooms.  The staff was friendly.  I would stay at this hotel again.A continental breakfast is provided.</t>
   </si>
 </sst>
 </file>
@@ -1907,51 +2004,45 @@
       <c r="A2" t="n">
         <v>41062</v>
       </c>
-      <c r="B2" t="n">
-        <v>4898</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
@@ -1965,67 +2056,65 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41062</v>
       </c>
-      <c r="B3" t="n">
-        <v>9440</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>4</v>
@@ -2034,265 +2123,253 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41062</v>
       </c>
-      <c r="B4" t="n">
-        <v>125638</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41062</v>
       </c>
-      <c r="B5" t="n">
-        <v>125639</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41062</v>
       </c>
-      <c r="B6" t="n">
-        <v>125640</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41062</v>
       </c>
-      <c r="B7" t="n">
-        <v>125641</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2304,82 +2381,80 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41062</v>
       </c>
-      <c r="B8" t="n">
-        <v>125642</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2392,1016 +2467,934 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41062</v>
       </c>
-      <c r="B10" t="n">
-        <v>16624</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41062</v>
       </c>
-      <c r="B11" t="n">
-        <v>125643</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41062</v>
       </c>
-      <c r="B12" t="n">
-        <v>125644</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41062</v>
       </c>
-      <c r="B13" t="n">
-        <v>54432</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41062</v>
       </c>
-      <c r="B14" t="n">
-        <v>7638</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41062</v>
       </c>
-      <c r="B15" t="n">
-        <v>110613</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41062</v>
       </c>
-      <c r="B16" t="n">
-        <v>5091</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41062</v>
       </c>
-      <c r="B17" t="n">
-        <v>125645</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41062</v>
       </c>
-      <c r="B18" t="n">
-        <v>125646</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41062</v>
       </c>
-      <c r="B19" t="n">
-        <v>72541</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41062</v>
       </c>
-      <c r="B20" t="n">
-        <v>125647</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41062</v>
       </c>
-      <c r="B21" t="n">
-        <v>14754</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21" t="s">
-        <v>85</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41062</v>
       </c>
-      <c r="B22" t="n">
-        <v>3929</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41062</v>
       </c>
-      <c r="B23" t="n">
-        <v>125648</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>4</v>
@@ -3410,218 +3403,196 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41062</v>
       </c>
-      <c r="B24" t="n">
-        <v>125649</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41062</v>
       </c>
-      <c r="B25" t="n">
-        <v>125650</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41062</v>
       </c>
-      <c r="B26" t="n">
-        <v>125651</v>
-      </c>
-      <c r="C26" t="s">
-        <v>271</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>278</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="n">
         <v>4</v>
       </c>
@@ -3633,287 +3604,271 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41062</v>
       </c>
-      <c r="B27" t="n">
-        <v>125652</v>
-      </c>
-      <c r="C27" t="s">
-        <v>281</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41062</v>
       </c>
-      <c r="B28" t="n">
-        <v>125653</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41062</v>
       </c>
-      <c r="B29" t="n">
-        <v>125654</v>
-      </c>
-      <c r="C29" t="s">
-        <v>300</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41062</v>
       </c>
-      <c r="B30" t="n">
-        <v>8110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>310</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3923,506 +3878,476 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41062</v>
       </c>
-      <c r="B31" t="n">
-        <v>356</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
         <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41062</v>
       </c>
-      <c r="B32" t="n">
-        <v>91416</v>
-      </c>
-      <c r="C32" t="s">
-        <v>329</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+        <v>303</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="X32" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="Y32" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41062</v>
       </c>
-      <c r="B33" t="n">
-        <v>7453</v>
-      </c>
-      <c r="C33" t="s">
-        <v>336</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="X33" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="Y33" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41062</v>
       </c>
-      <c r="B34" t="n">
-        <v>13684</v>
-      </c>
-      <c r="C34" t="s">
-        <v>346</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="X34" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="Y34" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41062</v>
       </c>
-      <c r="B35" t="n">
-        <v>125652</v>
-      </c>
-      <c r="C35" t="s">
-        <v>290</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="Y35" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41062</v>
       </c>
-      <c r="B36" t="n">
-        <v>125655</v>
-      </c>
-      <c r="C36" t="s">
-        <v>362</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="X36" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41062</v>
       </c>
-      <c r="B37" t="n">
-        <v>125656</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
@@ -4438,138 +4363,120 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="X37" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41062</v>
       </c>
-      <c r="B38" t="n">
-        <v>125657</v>
-      </c>
-      <c r="C38" t="s">
-        <v>382</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41062</v>
       </c>
-      <c r="B39" t="n">
-        <v>125658</v>
-      </c>
-      <c r="C39" t="s">
-        <v>389</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -4588,72 +4495,68 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41062</v>
       </c>
-      <c r="B40" t="n">
-        <v>16295</v>
-      </c>
-      <c r="C40" t="s">
-        <v>399</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4663,135 +4566,127 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="X40" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="Y40" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41062</v>
       </c>
-      <c r="B41" t="n">
-        <v>125659</v>
-      </c>
-      <c r="C41" t="s">
-        <v>409</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="X41" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="Y41" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41062</v>
       </c>
-      <c r="B42" t="n">
-        <v>125649</v>
-      </c>
-      <c r="C42" t="s">
-        <v>263</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
         <v>46</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
       <c r="I42" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4800,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -4813,66 +4708,66 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="X42" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="Y42" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41062</v>
       </c>
-      <c r="B43" t="n">
-        <v>30351</v>
-      </c>
-      <c r="C43" t="s">
-        <v>424</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
         <v>46</v>
       </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
       <c r="I43" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4884,214 +4779,210 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41062</v>
       </c>
-      <c r="B44" t="n">
-        <v>16545</v>
-      </c>
-      <c r="C44" t="s">
-        <v>432</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
       <c r="I44" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
       <c r="Y44" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41062</v>
       </c>
-      <c r="B45" t="n">
-        <v>125660</v>
-      </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
         <v>46</v>
       </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
       <c r="I45" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="O45" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>409</v>
+      </c>
+      <c r="X45" t="s">
+        <v>410</v>
+      </c>
       <c r="Y45" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41062</v>
       </c>
-      <c r="B46" t="n">
-        <v>125661</v>
-      </c>
-      <c r="C46" t="s">
-        <v>447</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
         <v>46</v>
       </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
       <c r="I46" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="K46" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5100,10 +4991,672 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
       <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>426</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>418</v>
+      </c>
+      <c r="X47" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>433</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" t="s">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s">
+        <v>446</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>447</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>449</v>
+      </c>
+      <c r="J51" t="s">
+        <v>450</v>
+      </c>
+      <c r="K51" t="s">
+        <v>451</v>
+      </c>
+      <c r="L51" t="s">
+        <v>452</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>453</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>455</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>456</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="K52" t="s">
+        <v>458</v>
+      </c>
+      <c r="L52" t="s">
+        <v>459</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>460</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>463</v>
+      </c>
+      <c r="J53" t="s">
+        <v>464</v>
+      </c>
+      <c r="K53" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>467</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>468</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+      <c r="J54" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54" t="s">
+        <v>472</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>467</v>
+      </c>
+      <c r="O54" t="s">
+        <v>303</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41062</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
